--- a/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de PractitionerRole, dérivé de FrPractitionerRoleExercice, pour le service d'agrégation de créneaux de la plateforme SAS (Service d'accès aux soins)</t>
+    <t>Profil de PractitionerRole, dérivé de FrPractitionerRoleExercice, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -755,7 +755,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -802,6 +802,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>PractitionerRole.organization.identifier.system</t>
   </si>
   <si>
@@ -821,6 +824,10 @@
   </si>
   <si>
     <t>PractitionerRole.organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>PractitionerRole.organization.display</t>
@@ -1386,17 +1393,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1405,21 +1412,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.65234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4774,7 +4781,7 @@
         <v>173</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -4809,10 +4816,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4838,10 +4845,10 @@
         <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>179</v>
@@ -4857,7 +4864,7 @@
         <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>181</v>
@@ -4913,10 +4920,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5015,10 +5022,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5117,10 +5124,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5143,7 +5150,7 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>198</v>
@@ -5219,10 +5226,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5248,13 +5255,13 @@
         <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5304,7 +5311,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5321,10 +5328,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5350,16 +5357,16 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5387,10 +5394,10 @@
         <v>162</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -5408,7 +5415,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5425,10 +5432,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5454,13 +5461,13 @@
         <v>167</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5489,10 +5496,10 @@
         <v>162</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
@@ -5510,7 +5517,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5527,10 +5534,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5553,13 +5560,13 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>218</v>
@@ -5612,7 +5619,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5629,10 +5636,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5655,13 +5662,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>218</v>
@@ -5714,7 +5721,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -5731,10 +5738,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5757,17 +5764,17 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>72</v>
@@ -5816,7 +5823,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5828,15 +5835,15 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5859,16 +5866,16 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5918,7 +5925,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5935,10 +5942,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6035,10 +6042,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6137,14 +6144,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6166,10 +6173,10 @@
         <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>128</v>
@@ -6224,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6241,10 +6248,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6270,13 +6277,13 @@
         <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6305,10 +6312,10 @@
         <v>162</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>
@@ -6326,7 +6333,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -6343,10 +6350,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6372,10 +6379,10 @@
         <v>204</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6426,7 +6433,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6443,10 +6450,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6469,16 +6476,16 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6528,7 +6535,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6545,10 +6552,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6571,16 +6578,16 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -6630,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -6647,10 +6654,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6673,13 +6680,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6730,7 +6737,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -6747,10 +6754,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6847,10 +6854,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6949,14 +6956,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -6978,10 +6985,10 @@
         <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>128</v>
@@ -7036,7 +7043,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7053,10 +7060,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7082,13 +7089,13 @@
         <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7138,7 +7145,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -7155,10 +7162,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7184,10 +7191,10 @@
         <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>193</v>
@@ -7240,7 +7247,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7257,10 +7264,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7286,13 +7293,13 @@
         <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7342,7 +7349,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -7359,10 +7366,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7385,19 +7392,19 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>218</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
@@ -7446,7 +7453,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
